--- a/unsteady/test_cases/beach_slope/results_beach2.xlsx
+++ b/unsteady/test_cases/beach_slope/results_beach2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/adapt_utils/unsteady/test_cases/beach_slope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4378A9C9-476D-1D49-A790-AD50AE734B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9B76D-50AE-914D-8303-1A29C9ECB059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{FFBB2C74-1ADB-6944-87A5-4C4E1AF9A278}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12980" windowHeight="16000" activeTab="9" xr2:uid="{FFBB2C74-1ADB-6944-87A5-4C4E1AF9A278}"/>
   </bookViews>
   <sheets>
     <sheet name="fixed" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>beta</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>fixed_output/hydrodynamics_beach_bath_fixed_330_1</t>
+  </si>
+  <si>
+    <t>not run</t>
+  </si>
+  <si>
+    <t>11993.pts-19.ese-by814</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C8A9CF-0514-814E-830F-EEB1ED35115E}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,7 +947,9 @@
       <c r="I2" s="1">
         <v>5909.7508695125498</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>7154</v>
+      </c>
       <c r="K2" s="1">
         <v>7134.17750525474</v>
       </c>
@@ -971,7 +979,12 @@
       <c r="I3" s="1">
         <v>0.51920850813450403</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1">
+        <v>0.84918477621422905</v>
+      </c>
+      <c r="K3">
+        <v>0.84918478349707704</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
@@ -998,6 +1011,9 @@
       <c r="I4" s="1">
         <v>0.13170784621340301</v>
       </c>
+      <c r="J4" s="1">
+        <v>0.140441781498923</v>
+      </c>
       <c r="K4">
         <v>0.14044178196042001</v>
       </c>
@@ -1071,6 +1087,9 @@
       <c r="J8" s="1">
         <v>5899.5151169299997</v>
       </c>
+      <c r="K8" s="1">
+        <v>7234</v>
+      </c>
       <c r="L8" s="1">
         <v>7134.17750525474</v>
       </c>
@@ -1104,10 +1123,18 @@
       <c r="J9">
         <v>0.13319300508661999</v>
       </c>
+      <c r="K9" s="1">
+        <v>0.140441781498923</v>
+      </c>
       <c r="L9">
         <v>0.14044178196042001</v>
       </c>
       <c r="M9" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
@@ -1126,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF68BB07-8DF9-2A4A-A2E1-85179C6290F2}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1541,7 +1568,7 @@
       <c r="D17" s="15"/>
       <c r="E17" s="2"/>
       <c r="G17" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H17" s="19">
         <v>1</v>
@@ -1564,7 +1591,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="G18" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="13">
         <v>0</v>
@@ -1572,7 +1599,9 @@
       <c r="I18" s="21">
         <v>1</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>1.7019606789569</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
@@ -1587,7 +1616,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H19" s="13">
         <v>1</v>
@@ -1618,7 +1647,9 @@
       <c r="I20" s="20">
         <v>0</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G21" s="1">
@@ -1630,7 +1661,9 @@
       <c r="I21" s="21">
         <v>1</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
@@ -1643,7 +1676,9 @@
       <c r="I22" s="21">
         <v>1</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
@@ -1677,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11B9D60-0028-EF49-8834-B8C0C627C774}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1723,26 +1758,21 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="15"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="15">
         <v>1.5602819765209801</v>
       </c>
-      <c r="E2" s="3">
-        <v>0.228418670117645</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
-        <v>1.5602819765209801</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
@@ -1754,26 +1784,21 @@
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="15"/>
+      <c r="E3" s="3"/>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="15">
         <v>1.5602819765209801</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.228418670117645</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1.5602819765209801</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -1785,26 +1810,21 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="15"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="15">
         <v>1.5602819765209801</v>
       </c>
-      <c r="E4" s="3">
-        <v>0.228418670117645</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15">
-        <v>1.5602819765209801</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
@@ -1816,12 +1836,8 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
-        <v>1.26211375107559</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.21995999534283101</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -1831,11 +1847,10 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="17">
+      <c r="L5" s="1"/>
+      <c r="M5" s="17">
         <v>1.2788423296307001</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1852,12 +1867,8 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>1.2435978685012901</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.22294948319743199</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -1867,11 +1878,10 @@
       <c r="I6" s="5">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
         <v>1.2651759128940001</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
@@ -1883,12 +1893,8 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>1.25696745384555</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.21986657739402199</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>3</v>
@@ -1899,11 +1905,10 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
         <v>1.27503972075024</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1918,12 +1923,8 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
-        <v>1.2174578406256999</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.20772480375578001</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="12"/>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1933,7 +1934,7 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="17">
+      <c r="M8" s="17">
         <v>1.21853623848841</v>
       </c>
     </row>
@@ -1947,12 +1948,8 @@
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>1.2736500408082101</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.22159102425910401</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="G9" s="13">
         <v>5</v>
       </c>
@@ -1962,7 +1959,7 @@
       <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
+      <c r="M9" s="1">
         <v>1.22969013819038</v>
       </c>
     </row>
@@ -1976,12 +1973,8 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="28">
-        <v>1.21200127648847</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0.20948445385386799</v>
-      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="25"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -1991,7 +1984,7 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-      <c r="J10" s="1">
+      <c r="M10" s="1">
         <v>1.21661597833538</v>
       </c>
     </row>
@@ -2005,12 +1998,8 @@
       <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
-        <v>1.2122934752726899</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.21629971896342001</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="G11" s="13">
         <v>7</v>
       </c>
@@ -2020,7 +2009,7 @@
       <c r="I11" s="20">
         <v>0</v>
       </c>
-      <c r="J11" s="17">
+      <c r="M11" s="17">
         <v>1.18987279196566</v>
       </c>
     </row>
@@ -2034,12 +2023,8 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>1.59362466471043</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.221847007019395</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="G12" s="13">
         <v>7</v>
       </c>
@@ -2049,7 +2034,7 @@
       <c r="I12" s="21">
         <v>1</v>
       </c>
-      <c r="J12" s="1">
+      <c r="M12" s="1">
         <v>1.25767222513544</v>
       </c>
     </row>
@@ -2063,12 +2048,8 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="28">
-        <v>1.2125537777475299</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0.22152061101777401</v>
-      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="25"/>
       <c r="G13" s="13">
         <v>7</v>
       </c>
@@ -2078,7 +2059,7 @@
       <c r="I13" s="21">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="M13" s="1">
         <v>1.19201756464216</v>
       </c>
     </row>
@@ -2092,12 +2073,8 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
-        <v>1.22569929239376</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.21961004425764499</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="G14" s="13">
         <v>10</v>
       </c>
@@ -2107,7 +2084,7 @@
       <c r="I14" s="20">
         <v>0</v>
       </c>
-      <c r="J14" s="17">
+      <c r="M14" s="17">
         <v>1.1732376211065001</v>
       </c>
     </row>
@@ -2121,12 +2098,8 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>2.0138513069303601</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.22404592676263699</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="G15" s="13">
         <v>10</v>
       </c>
@@ -2136,7 +2109,7 @@
       <c r="I15" s="21">
         <v>1</v>
       </c>
-      <c r="J15" s="1">
+      <c r="M15" s="1">
         <v>1.3615495017131001</v>
       </c>
     </row>
@@ -2150,12 +2123,8 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>1.2292453335926301</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.22299315374273601</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="G16" s="13">
         <v>10</v>
       </c>
@@ -2165,11 +2134,11 @@
       <c r="I16" s="21">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
+      <c r="M16" s="1">
         <v>1.1811627876326101</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>20</v>
       </c>
@@ -2179,12 +2148,8 @@
       <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="17">
-        <v>1.2372487342398999</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.21632083245867501</v>
-      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>15</v>
@@ -2195,12 +2160,12 @@
       <c r="I17" s="20">
         <v>0</v>
       </c>
-      <c r="J17" s="17">
+      <c r="K17" s="1"/>
+      <c r="M17" s="17">
         <v>1.1680257521231301</v>
       </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>20</v>
       </c>
@@ -2210,12 +2175,8 @@
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="13">
         <v>15</v>
@@ -2226,12 +2187,12 @@
       <c r="I18" s="21">
         <v>1</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1"/>
+      <c r="M18" s="1">
         <v>1.5079897944966401</v>
       </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>20</v>
       </c>
@@ -2241,12 +2202,8 @@
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
-        <v>1.2433480075922101</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.220057433629746</v>
-      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="13">
         <v>15</v>
@@ -2257,12 +2214,12 @@
       <c r="I19" s="21">
         <v>1</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="8"/>
+      <c r="M19" s="1">
         <v>1.17992357680565</v>
       </c>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>25</v>
       </c>
@@ -2272,12 +2229,8 @@
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
-        <v>1.2467264002530301</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.21287905314332001</v>
-      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="G20" s="1">
         <v>17</v>
       </c>
@@ -2287,11 +2240,11 @@
       <c r="I20" s="20">
         <v>0</v>
       </c>
-      <c r="J20" s="1">
+      <c r="M20" s="1">
         <v>1.1659100080259499</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
         <v>25</v>
       </c>
@@ -2301,12 +2254,8 @@
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="8">
-        <v>1.2550965322277201</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.21743616758758999</v>
-      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="1"/>
       <c r="G21" s="13">
         <v>17</v>
       </c>
@@ -2316,11 +2265,11 @@
       <c r="I21" s="21">
         <v>1</v>
       </c>
-      <c r="J21" s="1">
+      <c r="M21" s="1">
         <v>1.7256194441482899</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E22" s="1"/>
       <c r="G22" s="13">
         <v>17</v>
@@ -2331,11 +2280,11 @@
       <c r="I22" s="21">
         <v>1</v>
       </c>
-      <c r="J22" s="1">
+      <c r="M22" s="1">
         <v>1.1835427725701699</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E23" s="1"/>
       <c r="G23" s="1">
         <v>20</v>
@@ -2346,11 +2295,11 @@
       <c r="I23" s="20">
         <v>0</v>
       </c>
-      <c r="J23" s="12">
+      <c r="M23" s="12">
         <v>1.1657924796102499</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
       <c r="G24" s="13">
         <v>20</v>
@@ -2361,11 +2310,11 @@
       <c r="I24" s="21">
         <v>1</v>
       </c>
-      <c r="J24" s="1">
+      <c r="M24" s="1">
         <v>1.83796427461195</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
       <c r="G25" s="13">
         <v>20</v>
@@ -2376,29 +2325,29 @@
       <c r="I25" s="21">
         <v>1</v>
       </c>
-      <c r="J25" s="1">
+      <c r="M25" s="1">
         <v>1.1873542678020199</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.2">
@@ -2413,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0763E3-95A2-914B-B43A-B87209C564CB}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2471,7 +2420,9 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2">
+        <v>0.84918478349707704</v>
+      </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2496,7 +2447,9 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3">
+        <v>0.84918478349707704</v>
+      </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -2521,7 +2474,9 @@
       <c r="I4" s="5">
         <v>1</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4">
+        <v>0.84918478349707704</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -2546,10 +2501,10 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1">
-        <v>0.57791265558491201</v>
-      </c>
+      <c r="J5" s="1">
+        <v>0.56156330104712004</v>
+      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -2579,10 +2534,10 @@
       <c r="I6" s="5">
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="L6" s="1">
-        <v>0.55797560078590103</v>
-      </c>
+      <c r="J6" s="1">
+        <v>0.54399950775641304</v>
+      </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -2607,10 +2562,10 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1">
-        <v>0.56356743128877096</v>
-      </c>
+      <c r="J7" s="1">
+        <v>0.54734298211135701</v>
+      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -2638,10 +2593,10 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="L8" s="1">
-        <v>0.52013668267993296</v>
-      </c>
+      <c r="J8" s="1">
+        <v>0.49999809005711998</v>
+      </c>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
@@ -2665,10 +2620,10 @@
       <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="L9" s="1">
-        <v>0.51880937160506302</v>
-      </c>
+      <c r="J9" s="1">
+        <v>0.49907388161279398</v>
+      </c>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
@@ -2692,10 +2647,10 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1">
-        <v>0.51015534400502005</v>
-      </c>
+      <c r="J10" s="1">
+        <v>0.48973102338064101</v>
+      </c>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -2719,10 +2674,10 @@
       <c r="I11" s="20">
         <v>0</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="L11" s="1">
-        <v>0.51455198109357603</v>
-      </c>
+      <c r="J11" s="1">
+        <v>0.49032976918196503</v>
+      </c>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
@@ -2746,10 +2701,10 @@
       <c r="I12" s="21">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="L12" s="1">
-        <v>0.69563674056110203</v>
-      </c>
+      <c r="J12" s="1">
+        <v>0.668005349994089</v>
+      </c>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
@@ -2773,10 +2728,10 @@
       <c r="I13" s="21">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="L13" s="1">
-        <v>0.51905717495776404</v>
-      </c>
+      <c r="J13" s="1">
+        <v>0.49411739824213802</v>
+      </c>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -2800,10 +2755,10 @@
       <c r="I14" s="20">
         <v>0</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="L14" s="1">
-        <v>0.55213265145025203</v>
-      </c>
+      <c r="J14" s="1">
+        <v>0.52314983218460098</v>
+      </c>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
@@ -2827,10 +2782,10 @@
       <c r="I15" s="21">
         <v>1</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="L15" s="1">
-        <v>1.1270138601653099</v>
-      </c>
+      <c r="J15" s="1">
+        <v>1.09299397374653</v>
+      </c>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
@@ -2854,10 +2809,10 @@
       <c r="I16" s="21">
         <v>1</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="L16" s="1">
-        <v>0.58466610361095905</v>
-      </c>
+      <c r="J16" s="1">
+        <v>0.55417571538573496</v>
+      </c>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -2881,10 +2836,10 @@
       <c r="I17" s="20">
         <v>0</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="L17" s="1">
-        <v>0.64708604388742297</v>
-      </c>
+      <c r="J17" s="1">
+        <v>0.61375746031343403</v>
+      </c>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
@@ -2908,10 +2863,10 @@
       <c r="I18" s="21">
         <v>1</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="L18" s="1">
-        <v>1.7178192142484501</v>
-      </c>
+      <c r="J18" s="1">
+        <v>1.6814204655279099</v>
+      </c>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
@@ -2935,10 +2890,10 @@
       <c r="I19" s="21">
         <v>1</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="L19" s="1">
-        <v>0.73405525045564601</v>
-      </c>
+      <c r="J19" s="1">
+        <v>0.69842588479679102</v>
+      </c>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
@@ -2961,10 +2916,10 @@
       <c r="I20" s="20">
         <v>0</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="L20" s="1">
-        <v>0.684621911769703</v>
-      </c>
+      <c r="J20" s="1">
+        <v>0.65029075296541605</v>
+      </c>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
@@ -2987,10 +2942,10 @@
       <c r="I21" s="21">
         <v>1</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="L21" s="1">
-        <v>1.8686433212299001</v>
-      </c>
+      <c r="J21" s="1">
+        <v>1.83232804219486</v>
+      </c>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
@@ -3013,10 +2968,10 @@
       <c r="I22" s="21">
         <v>1</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="L22" s="1">
-        <v>0.78763387104665195</v>
-      </c>
+      <c r="J22" s="1">
+        <v>0.75091449709505098</v>
+      </c>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>

--- a/unsteady/test_cases/beach_slope/results_beach2.xlsx
+++ b/unsteady/test_cases/beach_slope/results_beach2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/adapt_utils/unsteady/test_cases/beach_slope/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9B76D-50AE-914D-8303-1A29C9ECB059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8347F93-1F2B-134A-96FA-BA8C86372089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12980" windowHeight="16000" activeTab="9" xr2:uid="{FFBB2C74-1ADB-6944-87A5-4C4E1AF9A278}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12680" windowHeight="16000" firstSheet="3" activeTab="7" xr2:uid="{FFBB2C74-1ADB-6944-87A5-4C4E1AF9A278}"/>
   </bookViews>
   <sheets>
     <sheet name="fixed" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="23">
   <si>
     <t>beta</t>
   </si>
@@ -71,9 +71,6 @@
     <t>5; 1; 0</t>
   </si>
   <si>
-    <t>div</t>
-  </si>
-  <si>
     <t>7; 0; 1</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>gamma_2</t>
-  </si>
-  <si>
-    <t>try with 80</t>
   </si>
   <si>
     <t>fixed_output/hydrodynamics_beach_bath_fixed_44_0.5</t>
@@ -113,10 +107,10 @@
     <t>fixed_output/hydrodynamics_beach_bath_fixed_330_1</t>
   </si>
   <si>
-    <t>not run</t>
+    <t>div</t>
   </si>
   <si>
-    <t>11993.pts-19.ese-by814</t>
+    <t>not run</t>
   </si>
 </sst>
 </file>
@@ -275,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -303,14 +297,15 @@
     <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,7 +623,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F5" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,45 +826,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -881,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C8A9CF-0514-814E-830F-EEB1ED35115E}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1048,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>10098.893844366001</v>
@@ -1131,10 +1121,54 @@
       </c>
       <c r="M9" s="1"/>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>2592*2</f>
+        <v>5184</v>
+      </c>
+      <c r="B13">
+        <f>$A$13/B7</f>
+        <v>324</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:K13" si="0">$A$13/C7</f>
+        <v>162</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H14" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
@@ -1153,15 +1187,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF68BB07-8DF9-2A4A-A2E1-85179C6290F2}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1176,13 +1210,13 @@
         <v>72</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="10">
         <v>648</v>
@@ -1190,17 +1224,21 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1.8134048549833</v>
+      </c>
+      <c r="E2">
+        <v>0.30190393343927402</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -1210,22 +1248,28 @@
       <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2">
+        <v>1.8134048549833</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.8134048549833</v>
+      </c>
+      <c r="E3">
+        <v>0.30190393343927402</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -1235,7 +1279,9 @@
       <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3">
+        <v>1.8134048549833</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="S3" s="1"/>
@@ -1245,17 +1291,21 @@
       <c r="W3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="30">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="D4">
+        <v>1.8134048549833</v>
+      </c>
+      <c r="E4">
+        <v>0.30190393343927402</v>
+      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -1265,22 +1315,28 @@
       <c r="I4" s="5">
         <v>1</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4">
+        <v>1.8134048549833</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.6041876838389</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.307139569800432</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
@@ -1291,7 +1347,9 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>1.41538547798829</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="O5" s="1"/>
@@ -1300,16 +1358,20 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.6238338536813799</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.29463437629342298</v>
+      </c>
       <c r="G6" s="18">
         <v>3</v>
       </c>
@@ -1319,20 +1381,26 @@
       <c r="I6" s="5">
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>1.41417723518186</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.6025207401461601</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.30772810489825603</v>
+      </c>
       <c r="G7" s="1">
         <v>3</v>
       </c>
@@ -1342,11 +1410,13 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>1.41146272761781</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1354,8 +1424,12 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>1.3936823146448001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.29727218445838199</v>
+      </c>
       <c r="G8" s="18">
         <v>5</v>
       </c>
@@ -1365,11 +1439,13 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>1.3319740857766</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1377,8 +1453,12 @@
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>1.37876916800144</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.28130115468447697</v>
+      </c>
       <c r="G9" s="18">
         <v>5</v>
       </c>
@@ -1388,11 +1468,13 @@
       <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>1.36527232161422</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1400,8 +1482,12 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>1.3892470529285299</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.29721179666671999</v>
+      </c>
       <c r="G10" s="18">
         <v>5</v>
       </c>
@@ -1411,11 +1497,13 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>1.3303505446452599</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1423,8 +1511,12 @@
       <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="1">
+        <v>1.3406097091639599</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.29476231851600199</v>
+      </c>
       <c r="G11">
         <v>7</v>
       </c>
@@ -1434,11 +1526,13 @@
       <c r="I11" s="20">
         <v>0</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <v>1.3042241753800199</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1446,8 +1540,12 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>1.4310514578384199</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.29393407485226503</v>
+      </c>
       <c r="G12" s="18">
         <v>7</v>
       </c>
@@ -1457,11 +1555,13 @@
       <c r="I12" s="21">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>1.41507818027712</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1469,8 +1569,12 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>1.3375235203756499</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.30040547191542799</v>
+      </c>
       <c r="G13" s="18">
         <v>7</v>
       </c>
@@ -1480,11 +1584,13 @@
       <c r="I13" s="21">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>1.3077852920164199</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
@@ -1492,8 +1598,12 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="1">
+        <v>1.3444351060462301</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.31515501096177401</v>
+      </c>
       <c r="G14">
         <v>10</v>
       </c>
@@ -1503,11 +1613,13 @@
       <c r="I14" s="20">
         <v>0</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="J14" s="12">
+        <v>1.29746791477405</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B15" s="16">
         <v>0</v>
@@ -1515,8 +1627,12 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>1.58846557086741</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.29650717834037199</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="18">
         <v>10</v>
@@ -1527,12 +1643,14 @@
       <c r="I15" s="21">
         <v>1</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>1.52199098969102</v>
+      </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B16" s="16">
         <v>1</v>
@@ -1540,8 +1658,12 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>1.34491188889005</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.32753826674969699</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="18">
         <v>10</v>
@@ -1552,12 +1674,14 @@
       <c r="I16" s="21">
         <v>1</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>1.30644915392705</v>
+      </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
@@ -1565,8 +1689,12 @@
       <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="1">
+        <v>1.36997935480349</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.34250254059755703</v>
+      </c>
       <c r="G17" s="1">
         <v>15</v>
       </c>
@@ -1576,11 +1704,13 @@
       <c r="I17" s="20">
         <v>0</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>1.3031084656502301</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B18" s="16">
         <v>0</v>
@@ -1588,8 +1718,12 @@
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>1.81505721886395</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.30609744092093599</v>
+      </c>
       <c r="G18" s="1">
         <v>15</v>
       </c>
@@ -1604,17 +1738,21 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
-        <v>20</v>
-      </c>
-      <c r="B19" s="16">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7">
         <v>1</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>1.37440755257406</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.35205714153250101</v>
+      </c>
       <c r="G19" s="1">
         <v>15</v>
       </c>
@@ -1624,20 +1762,26 @@
       <c r="I19" s="21">
         <v>1</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <v>1.32026797281917</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.38663465233743</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.35224739223170398</v>
+      </c>
       <c r="G20" s="1">
         <v>17</v>
       </c>
@@ -1647,11 +1791,26 @@
       <c r="I20" s="20">
         <v>0</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
+      <c r="J20" s="1">
+        <v>1.3064685590527201</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.9511227894435501</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.28973949053919501</v>
+      </c>
       <c r="G21" s="1">
         <v>17</v>
       </c>
@@ -1661,11 +1820,26 @@
       <c r="I21" s="21">
         <v>1</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>23</v>
+      <c r="J21" s="1">
+        <v>1.7780617080700001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.3930370180675899</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.35934156688356</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>17</v>
@@ -1676,8 +1850,8 @@
       <c r="I22" s="21">
         <v>1</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>23</v>
+      <c r="J22" s="1">
+        <v>1.3264136664460699</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1712,15 +1886,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11B9D60-0028-EF49-8834-B8C0C627C774}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1735,13 +1909,13 @@
         <v>72</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="10">
         <v>648</v>
@@ -1752,14 +1926,18 @@
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1.53163094036794</v>
+      </c>
+      <c r="E2">
+        <v>0.232358594967007</v>
+      </c>
       <c r="G2" s="4">
         <v>0</v>
       </c>
@@ -1768,6 +1946,9 @@
       </c>
       <c r="I2" s="4">
         <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.53163094036794</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="15">
@@ -1778,14 +1959,18 @@
       <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="16">
         <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="3"/>
+      <c r="D3">
+        <v>1.53163094036794</v>
+      </c>
+      <c r="E3">
+        <v>0.232358594967007</v>
+      </c>
       <c r="G3" s="7">
         <v>0</v>
       </c>
@@ -1794,6 +1979,9 @@
       </c>
       <c r="I3" s="5">
         <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.53163094036794</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="15">
@@ -1801,17 +1989,21 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="30">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="3"/>
+      <c r="D4">
+        <v>1.53163094036794</v>
+      </c>
+      <c r="E4">
+        <v>0.232358594967007</v>
+      </c>
       <c r="G4" s="5">
         <v>0</v>
       </c>
@@ -1820,6 +2012,9 @@
       </c>
       <c r="I4" s="5">
         <v>1</v>
+      </c>
+      <c r="J4" s="33">
+        <v>1.53163094036794</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="15">
@@ -1827,17 +2022,21 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.37806653798928</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.230953794391759</v>
+      </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -1846,6 +2045,9 @@
       </c>
       <c r="I5" s="4">
         <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.24623331227667</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="17">
@@ -1858,17 +2060,21 @@
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16">
         <v>0</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>1.3836842467471</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.22797262358567399</v>
+      </c>
       <c r="G6" s="13">
         <v>3</v>
       </c>
@@ -1877,6 +2083,9 @@
       </c>
       <c r="I6" s="5">
         <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.2303673968666</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -1884,17 +2093,21 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>1.3762781896567</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.231308517445174</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>3</v>
@@ -1905,6 +2118,9 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
+      <c r="J7" s="1">
+        <v>1.2421689549486701</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
         <v>1.27503972075024</v>
@@ -1915,7 +2131,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1923,8 +2139,12 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="1">
+        <v>1.22747795859191</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.22445156369456801</v>
+      </c>
       <c r="G8" s="1">
         <v>5</v>
       </c>
@@ -1934,13 +2154,16 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
+      <c r="J8" s="1">
+        <v>1.1830064079918801</v>
+      </c>
       <c r="M8" s="17">
         <v>1.21853623848841</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1948,8 +2171,12 @@
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>1.2059533735466399</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.22788466406476701</v>
+      </c>
       <c r="G9" s="13">
         <v>5</v>
       </c>
@@ -1959,13 +2186,16 @@
       <c r="I9" s="5">
         <v>1</v>
       </c>
+      <c r="J9" s="1">
+        <v>1.18981049538015</v>
+      </c>
       <c r="M9" s="1">
         <v>1.22969013819038</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1973,8 +2203,12 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="1">
+        <v>1.2223385322412299</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.22460876958572901</v>
+      </c>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -1984,13 +2218,16 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
+      <c r="J10" s="1">
+        <v>1.18056405469143</v>
+      </c>
       <c r="M10" s="1">
         <v>1.21661597833538</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1998,8 +2235,12 @@
       <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>1.1804368542206001</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.21240769897751499</v>
+      </c>
       <c r="G11" s="13">
         <v>7</v>
       </c>
@@ -2009,13 +2250,16 @@
       <c r="I11" s="20">
         <v>0</v>
       </c>
+      <c r="J11" s="1">
+        <v>1.15267162352619</v>
+      </c>
       <c r="M11" s="17">
         <v>1.18987279196566</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2023,8 +2267,12 @@
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>1.2400786881904899</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.22573976486722699</v>
+      </c>
       <c r="G12" s="13">
         <v>7</v>
       </c>
@@ -2034,13 +2282,16 @@
       <c r="I12" s="21">
         <v>1</v>
       </c>
+      <c r="J12" s="1">
+        <v>1.22068432794349</v>
+      </c>
       <c r="M12" s="1">
         <v>1.25767222513544</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2048,8 +2299,12 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="25"/>
+      <c r="D13" s="1">
+        <v>1.17484705037764</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.21404454518796601</v>
+      </c>
       <c r="G13" s="13">
         <v>7</v>
       </c>
@@ -2059,13 +2314,16 @@
       <c r="I13" s="21">
         <v>1</v>
       </c>
+      <c r="J13" s="1">
+        <v>1.1544713313455299</v>
+      </c>
       <c r="M13" s="1">
         <v>1.19201756464216</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
@@ -2073,8 +2331,12 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1">
+        <v>1.1706687788871999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.212733527170026</v>
+      </c>
       <c r="G14" s="13">
         <v>10</v>
       </c>
@@ -2084,13 +2346,16 @@
       <c r="I14" s="20">
         <v>0</v>
       </c>
+      <c r="J14" s="1">
+        <v>1.1352925560495299</v>
+      </c>
       <c r="M14" s="17">
         <v>1.1732376211065001</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B15" s="16">
         <v>0</v>
@@ -2098,8 +2363,12 @@
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>1.36227075320728</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.226196567090996</v>
+      </c>
       <c r="G15" s="13">
         <v>10</v>
       </c>
@@ -2109,13 +2378,16 @@
       <c r="I15" s="21">
         <v>1</v>
       </c>
+      <c r="J15" s="1">
+        <v>1.33329220497552</v>
+      </c>
       <c r="M15" s="1">
         <v>1.3615495017131001</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B16" s="16">
         <v>1</v>
@@ -2123,8 +2395,12 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>1.1678062259528199</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.21747320424088601</v>
+      </c>
       <c r="G16" s="13">
         <v>10</v>
       </c>
@@ -2134,13 +2410,16 @@
       <c r="I16" s="21">
         <v>1</v>
       </c>
+      <c r="J16" s="1">
+        <v>1.14335367969568</v>
+      </c>
       <c r="M16" s="1">
         <v>1.1811627876326101</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
@@ -2148,8 +2427,12 @@
       <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="1">
+        <v>1.1763835674079599</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.22068345346943</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>15</v>
@@ -2160,6 +2443,9 @@
       <c r="I17" s="20">
         <v>0</v>
       </c>
+      <c r="J17" s="1">
+        <v>1.1292986268379701</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="M17" s="17">
         <v>1.1680257521231301</v>
@@ -2167,7 +2453,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B18" s="16">
         <v>0</v>
@@ -2175,8 +2461,12 @@
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>1.59379428975324</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.226908646411702</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="13">
         <v>15</v>
@@ -2187,14 +2477,17 @@
       <c r="I18" s="21">
         <v>1</v>
       </c>
+      <c r="J18" s="1">
+        <v>1.6053295559003999</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="M18" s="1">
         <v>1.5079897944966401</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
-        <v>20</v>
+      <c r="A19" s="5">
+        <v>10</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
@@ -2202,8 +2495,12 @@
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>1.1768912181065301</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.226304098158644</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="13">
         <v>15</v>
@@ -2214,6 +2511,9 @@
       <c r="I19" s="21">
         <v>1</v>
       </c>
+      <c r="J19" s="1">
+        <v>1.14496219623009</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="M19" s="1">
         <v>1.17992357680565</v>
@@ -2221,16 +2521,20 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>25</v>
-      </c>
-      <c r="B20" s="27">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="1">
+        <v>1.1829439314483301</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.224421980829593</v>
+      </c>
       <c r="G20" s="1">
         <v>17</v>
       </c>
@@ -2240,22 +2544,29 @@
       <c r="I20" s="20">
         <v>0</v>
       </c>
+      <c r="J20" s="12">
+        <v>1.1289668752864701</v>
+      </c>
       <c r="M20" s="1">
         <v>1.1659100080259499</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="26">
-        <v>25</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
+      <c r="A21" s="5">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1">
+        <v>1.7431752772365401</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.233225295223877</v>
+      </c>
       <c r="G21" s="13">
         <v>17</v>
       </c>
@@ -2265,12 +2576,29 @@
       <c r="I21" s="21">
         <v>1</v>
       </c>
+      <c r="J21" s="1">
+        <v>1.71864089626271</v>
+      </c>
       <c r="M21" s="1">
         <v>1.7256194441482899</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E22" s="1"/>
+      <c r="A22" s="5">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.18506223853952</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.229134780703871</v>
+      </c>
       <c r="G22" s="13">
         <v>17</v>
       </c>
@@ -2280,54 +2608,33 @@
       <c r="I22" s="21">
         <v>1</v>
       </c>
+      <c r="J22" s="1">
+        <v>1.14790479571436</v>
+      </c>
       <c r="M22" s="1">
         <v>1.1835427725701699</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E23" s="1"/>
-      <c r="G23" s="1">
-        <v>20</v>
-      </c>
-      <c r="H23" s="19">
-        <v>1</v>
-      </c>
-      <c r="I23" s="20">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12">
-        <v>1.1657924796102499</v>
-      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
-      <c r="G24" s="13">
-        <v>20</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="21">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1.83796427461195</v>
-      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="21"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
-      <c r="G25" s="13">
-        <v>20</v>
-      </c>
-      <c r="H25" s="13">
-        <v>1</v>
-      </c>
-      <c r="I25" s="21">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1.1873542678020199</v>
-      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="21"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E26" s="1"/>
@@ -2362,15 +2669,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0763E3-95A2-914B-B43A-B87209C564CB}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2385,13 +2692,13 @@
         <v>72</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="10">
         <v>648</v>
@@ -2408,9 +2715,13 @@
       <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="10"/>
+      <c r="D2">
+        <v>0.84918478349707704</v>
+      </c>
+      <c r="E2">
+        <v>0.14044178196042001</v>
+      </c>
+      <c r="F2" s="8"/>
       <c r="G2" s="18">
         <v>0</v>
       </c>
@@ -2435,8 +2746,12 @@
       <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3">
+        <v>0.84918478349707704</v>
+      </c>
+      <c r="E3">
+        <v>0.14044178196042001</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="18">
         <v>0</v>
@@ -2453,17 +2768,21 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="32">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="35">
+        <v>0</v>
+      </c>
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0.84918478349707704</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0.14044178196042001</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="18">
         <v>0</v>
@@ -2490,7 +2809,9 @@
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>0.13685707076960399</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>3</v>
@@ -2523,7 +2844,9 @@
         <v>1</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>0.137467784091101</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="13">
         <v>3</v>
@@ -2550,9 +2873,11 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="1">
+        <v>0.136831923315274</v>
+      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="1">
         <v>3</v>
       </c>
@@ -2582,7 +2907,9 @@
         <v>0</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>0.13079782079153901</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1">
         <v>5</v>
@@ -2609,7 +2936,9 @@
         <v>1</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>0.12833419211667599</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="13">
         <v>5</v>
@@ -2635,9 +2964,11 @@
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="1">
+        <v>0.13070040863962501</v>
+      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="13">
         <v>5</v>
       </c>
@@ -2663,7 +2994,9 @@
         <v>0</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>0.12868786182374001</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="13">
         <v>7</v>
@@ -2674,7 +3007,7 @@
       <c r="I11" s="20">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="12">
         <v>0.49032976918196503</v>
       </c>
       <c r="L11" s="1"/>
@@ -2690,7 +3023,9 @@
         <v>1</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>0.122070107193314</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="13">
         <v>7</v>
@@ -2716,9 +3051,11 @@
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="1">
+        <v>0.12796556223858399</v>
+      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="13">
         <v>7</v>
       </c>
@@ -2744,7 +3081,9 @@
         <v>0</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>0.126749870091832</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="13">
         <v>10</v>
@@ -2771,7 +3110,9 @@
         <v>1</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>0.118071964121613</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="13">
         <v>10</v>
@@ -2797,8 +3138,10 @@
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="1">
+        <v>0.12599294911306999</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="13">
         <v>10</v>
@@ -2825,7 +3168,9 @@
         <v>0</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>0.12564494903110199</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="1">
         <v>15</v>
@@ -2852,7 +3197,9 @@
         <v>1</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>0.12601149880320101</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="13">
         <v>15</v>
@@ -2878,8 +3225,10 @@
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="1">
+        <v>0.124184123418577</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="13">
         <v>15</v>
@@ -2906,7 +3255,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0.124881680645031</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
       <c r="G20" s="1">
         <v>17</v>
       </c>
@@ -2932,7 +3286,9 @@
         <v>1</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>0.145294288001137</v>
+      </c>
       <c r="G21" s="13">
         <v>17</v>
       </c>
@@ -2958,7 +3314,9 @@
         <v>1</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>0.12297719185093001</v>
+      </c>
       <c r="G22" s="13">
         <v>17</v>
       </c>
@@ -3030,15 +3388,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B541FD-9D0F-0742-A313-24A7A2F04F73}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -3055,13 +3413,13 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="K1" s="10">
         <v>648</v>
@@ -3091,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.80174052384563299</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.131556096721067</v>
+        <v>0.79052297417199402</v>
+      </c>
+      <c r="E2">
+        <v>0.13308474646454099</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -3108,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.80174052384563299</v>
+        <v>0.79052297417199402</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -3125,7 +3483,7 @@
       <c r="X2" s="13"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="32">
         <v>0</v>
       </c>
       <c r="B3" s="13">
@@ -3135,14 +3493,14 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.80174052384563299</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.131556096721067</v>
-      </c>
-      <c r="F3" s="34"/>
+        <v>0.79052297417199402</v>
+      </c>
+      <c r="E3">
+        <v>0.13308474646454099</v>
+      </c>
+      <c r="F3" s="32"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="34">
+      <c r="H3" s="32">
         <v>0</v>
       </c>
       <c r="I3" s="13">
@@ -3152,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.80174052384563299</v>
+        <v>0.79052297417199402</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -3169,7 +3527,7 @@
       <c r="X3" s="13"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="31">
         <v>0</v>
       </c>
       <c r="B4" s="13">
@@ -3179,14 +3537,14 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.80174052384563299</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.131556096721067</v>
+        <v>0.79052297417199402</v>
+      </c>
+      <c r="E4">
+        <v>0.13308474646454099</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <v>0</v>
       </c>
       <c r="I4" s="13">
@@ -3196,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0.80174052384563299</v>
+        <v>0.79052297417199402</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="1"/>
@@ -3222,11 +3580,9 @@
       <c r="C5" s="21">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.66150682076512002</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <v>0.127518663553635</v>
+        <v>0.12911909820196699</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="13"/>
@@ -3240,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0.52348386737328101</v>
+        <v>0.51774362623961101</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="1"/>
@@ -3266,11 +3622,9 @@
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.66271154463152004</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <v>0.12776620164778801</v>
+        <v>0.12936015236215201</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="13"/>
@@ -3284,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0.48234955395008799</v>
+        <v>0.47709050926346402</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="1"/>
@@ -3310,11 +3664,9 @@
       <c r="C7" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.65485331278872105</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <v>0.127443031382905</v>
+        <v>0.129045745684428</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3328,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>0.50473814850742604</v>
+        <v>0.49978106457333499</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="1"/>
@@ -3354,11 +3706,9 @@
       <c r="C8" s="20">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.499427772443165</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>0.122633181696937</v>
+        <v>0.124325020952332</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="13"/>
@@ -3372,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0.46571128976791298</v>
+        <v>0.462037103065156</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -3398,11 +3748,9 @@
       <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.44262442607344499</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <v>0.119318571118881</v>
+        <v>0.12104530110091399</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="13"/>
@@ -3416,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0.50626479624072396</v>
+        <v>0.50878149271833295</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -3442,11 +3790,9 @@
       <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.47728579971691198</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <v>0.121977195550436</v>
+        <v>0.123696216370606</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="13"/>
@@ -3460,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>0.45535334866982602</v>
+        <v>0.45283650242207102</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -3486,11 +3832,9 @@
       <c r="C11" s="20">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.45832659800750403</v>
-      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>0.119814057129458</v>
+        <v>0.12161968897850101</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="13"/>
@@ -3504,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="12">
-        <v>0.46237716712431898</v>
+        <v>0.46053764218508297</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -3531,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0.112636030987838</v>
+        <v>0.114670260065537</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="13"/>
@@ -3545,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>0.75712001912677496</v>
+        <v>0.76814969619960105</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -3571,11 +3915,9 @@
       <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.45013573803771201</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <v>0.118903100646472</v>
+        <v>0.120750247285422</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="13"/>
@@ -3589,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>0.47564338849500598</v>
+        <v>0.47516975576701698</v>
       </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -3615,11 +3957,9 @@
       <c r="C14" s="20">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.47301186236367099</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <v>0.118320445568941</v>
+        <v>0.12020009112751</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="13"/>
@@ -3633,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0.50303038799119604</v>
+        <v>0.50331097843472605</v>
       </c>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -3659,11 +3999,9 @@
       <c r="C15" s="21">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>1.18494013246862</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="12">
-        <v>0.110088167283594</v>
+        <v>0.112679470978706</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="13"/>
@@ -3677,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1.1342692543627499</v>
+        <v>1.13908582293834</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -3703,11 +4041,9 @@
       <c r="C16" s="21">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.497088465553089</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <v>0.116908408489013</v>
+        <v>0.118856177372061</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="13"/>
@@ -3721,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>0.56179799168279998</v>
+        <v>0.56222732599018299</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -3747,11 +4083,9 @@
       <c r="C17" s="20">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
-        <v>0.52387421222778197</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <v>0.117038891054511</v>
+        <v>0.119027755442041</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3765,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0.60090535252393595</v>
+        <v>0.60346468704987599</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="13"/>
@@ -3791,11 +4125,9 @@
       <c r="C18" s="21">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
-        <v>1.7293798984048001</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <v>0.11923485797549099</v>
+        <v>0.122863393959126</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -3809,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1.52851365033179</v>
+        <v>1.56163269262406</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -3835,11 +4167,9 @@
       <c r="C19" s="21">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.62163919596619299</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>0.115023862044266</v>
+        <v>0.11714946612482</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -3853,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>0.70526411228021302</v>
+        <v>0.70350661398917902</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -3879,11 +4209,9 @@
       <c r="C20" s="20">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.55858861563846296</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <v>0.116774643505378</v>
+        <v>0.118809544739753</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="13"/>
@@ -3897,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0.63852680869510303</v>
+        <v>0.641532455011394</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -3923,11 +4251,9 @@
       <c r="C21" s="21">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
-        <v>1.91853347375795</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <v>0.131385600556368</v>
+        <v>0.13504760005611499</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="1"/>
@@ -3941,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>1.7310307859877501</v>
+        <v>1.74707243325364</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
@@ -3967,11 +4293,9 @@
       <c r="C22" s="21">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
-        <v>0.70050868785729703</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>0.114370052629314</v>
+        <v>0.116572601991799</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="1"/>
@@ -3985,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>0.74985467724011101</v>
+        <v>0.74708949002369096</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -6031,46 +6355,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA4DD27-10B0-164D-93A3-F9755170859C}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13">
+        <v>72</v>
+      </c>
+      <c r="E1" s="24">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="24">
-        <v>53.333333333333336</v>
-      </c>
-      <c r="E1" s="13">
-        <v>72</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
       <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="10">
+      <c r="J1" s="10">
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>0</v>
       </c>
@@ -6081,27 +6404,24 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.763746266361778</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.123101901743812</v>
-      </c>
+        <v>0.12419415797165501</v>
+      </c>
+      <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
       <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>1</v>
-      </c>
-      <c r="J2" s="21">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0.763746266361778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.75402352567873498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>0</v>
       </c>
@@ -6112,27 +6432,24 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.763746266361778</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.123101901743812</v>
-      </c>
+        <v>0.12419415797165501</v>
+      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
       <c r="H3" s="13">
         <v>0</v>
       </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0.763746266361778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I3" s="21">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.75402352567873498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>0</v>
       </c>
@@ -6143,27 +6460,24 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.763746266361778</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.123101901743812</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="13"/>
+        <v>0.12419415797165501</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
       <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>1</v>
-      </c>
-      <c r="J4" s="21">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0.763746266361778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.75402352567873498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -6174,27 +6488,24 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.63403730005018699</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.119700452647396</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="1">
+        <v>0.12086450303118</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.52371414874117705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.51915546459871698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>1</v>
       </c>
@@ -6205,30 +6516,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0.61063530371044406</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.119199550790308</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13">
+        <v>0.120361130062726</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.48583755881306201</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.48583755881306201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.48429129715292502</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>1</v>
       </c>
@@ -6239,27 +6545,24 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0.62240946407473696</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.119449182682919</v>
-      </c>
+        <v>0.120620671990899</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.50515815563959698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.501649271062936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>3</v>
       </c>
@@ -6270,27 +6573,24 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0.502864308785539</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.114934012608294</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="1">
+        <v>0.11623667838278499</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0.49784013833227903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.49641677055192401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>3</v>
       </c>
@@ -6301,27 +6601,24 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>0.52112107916688399</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.110322771031995</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13">
+        <v>0.11176777613894701</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
         <v>5</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.66524379801260203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.67307757576507399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>3</v>
       </c>
@@ -6332,27 +6629,24 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>0.48315837386218502</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.114020950763152</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
+        <v>0.115379847758045</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13">
         <v>5</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.50719061666773901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.50740880172066305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>5</v>
       </c>
@@ -6363,27 +6657,24 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0.49452705066803798</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.112656804572265</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
+        <v>0.114070087798468</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
         <v>7</v>
       </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.51713797013145901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.51815600476271795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>5</v>
       </c>
@@ -6393,28 +6684,25 @@
       <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.960898110777473</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.105885298905773</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="12">
+        <v>0.10799759369372799</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
+        <v>7</v>
+      </c>
       <c r="H12" s="13">
-        <v>7</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.85672360750671195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.85166745876910699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>5</v>
       </c>
@@ -6425,27 +6713,24 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>0.51932968050333095</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.110963503765989</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="13"/>
+        <v>0.11252411451336999</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13">
+        <v>7</v>
+      </c>
       <c r="H13" s="13">
-        <v>7</v>
-      </c>
-      <c r="I13" s="13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="21">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.57099266968951001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.571387635781755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>7</v>
       </c>
@@ -6456,27 +6741,24 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.528161239299062</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.111442216390511</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13">
+        <v>0.112967188435966</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
         <v>10</v>
       </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.57378481026058203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H14" s="19">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.57730140174606404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>7</v>
       </c>
@@ -6487,27 +6769,24 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>1.2425278195943199</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.10722214106714199</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="13"/>
+        <v>0.10974763198221101</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
+        <v>10</v>
+      </c>
       <c r="H15" s="13">
-        <v>10</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
-        <v>1</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>7</v>
       </c>
@@ -6518,27 +6797,24 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>0.61670844616232201</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.109463979128173</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="13"/>
+        <v>0.111206770507681</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
+        <v>10</v>
+      </c>
       <c r="H16" s="13">
-        <v>10</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1</v>
-      </c>
-      <c r="J16" s="21">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.66233382236218297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="21">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.65990488981866602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>10</v>
       </c>
@@ -6549,27 +6825,24 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>0.58534037512526904</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.110486823061549</v>
-      </c>
+        <v>0.11211426509165399</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
+      <c r="G17" s="1">
         <v>15</v>
       </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="20">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.66875392013479396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.67425506019102999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>10</v>
       </c>
@@ -6580,27 +6853,26 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="G18" s="13">
+        <v>15</v>
+      </c>
       <c r="H18" s="13">
-        <v>15</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="21">
-        <v>1</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>10</v>
       </c>
@@ -6611,27 +6883,24 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>0.74054106765821703</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.10826536116749599</v>
-      </c>
+        <v>0.11018760708478401</v>
+      </c>
+      <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13">
+        <v>15</v>
+      </c>
       <c r="H19" s="13">
-        <v>15</v>
-      </c>
-      <c r="I19" s="13">
-        <v>1</v>
-      </c>
-      <c r="J19" s="21">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.74676337792416303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="21">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.74308486788044303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>12</v>
       </c>
@@ -6642,27 +6911,24 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0.61718987063360398</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.110143655706951</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="1">
+        <v>0.111835609915909</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="1">
         <v>17</v>
       </c>
-      <c r="I20" s="19">
-        <v>1</v>
-      </c>
-      <c r="J20" s="20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.70078643978542898</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="19">
+        <v>1</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.70658542892168597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>12</v>
       </c>
@@ -6673,25 +6939,24 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="13">
+        <v>17</v>
+      </c>
       <c r="H21" s="13">
-        <v>17</v>
-      </c>
-      <c r="I21" s="13">
-        <v>0</v>
-      </c>
-      <c r="J21" s="21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>12</v>
       </c>
@@ -6702,24 +6967,21 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>0.79943852722463604</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.108053898784526</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="1"/>
+        <v>0.11004921051915501</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="13">
+        <v>17</v>
+      </c>
       <c r="H22" s="13">
-        <v>17</v>
-      </c>
-      <c r="I22" s="13">
-        <v>1</v>
-      </c>
-      <c r="J22" s="21">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.77274224557024296</v>
+        <v>1</v>
+      </c>
+      <c r="I22" s="21">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.76984823748184406</v>
       </c>
     </row>
   </sheetData>
@@ -6729,10 +6991,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA506C3-4775-D34A-BCAB-DCD965B554F7}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6740,176 +7002,749 @@
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1296</v>
-      </c>
-      <c r="F1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E2" s="1"/>
-      <c r="F2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>25987.877620458599</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.87060781650908303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13">
+        <v>40</v>
+      </c>
+      <c r="E1" s="13">
+        <v>72</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="10">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.75471867916000701</v>
+      </c>
+      <c r="E2">
+        <v>0.112161292554792</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.75471867916000701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.75471867916000701</v>
+      </c>
+      <c r="E3">
+        <v>0.112161292554792</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.75471867916000701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.75471867916000701</v>
+      </c>
+      <c r="E4">
+        <v>0.112161292554792</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.75471867916000701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>0.109206076241932</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.62726556399967204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>0.107742718835961</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.72797870250410401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>0.108242749394569</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.66583498988325096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>0.108693879400489</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.64543890383657698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>0.105656950963619</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.66564486443918602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>0.101988997252318</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>0.10266374261137499</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.73656952337401205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>0.10406294091751001</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.72178047234100695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>5</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>0.10421240429018799</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>23761.503139019002</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.663252513900211</v>
-      </c>
-      <c r="F3">
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.711092734906702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
         <v>7</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>25721.995955467199</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.82083962721610904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>23443.0058538913</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.62796690930304699</v>
-      </c>
-      <c r="F4">
+      <c r="B15" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="12">
+        <v>0.10207659547866201</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>25425.220996141401</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.75441446785926203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5">
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>0.102885506970132</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13">
+        <v>7</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.77025606295384597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>7</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>0.103634991019741</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13">
+        <v>10</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.75683350558551199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>7</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13">
+        <v>10</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>7</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>0.102411345997469</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>7</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>0.102791238860915</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13">
+        <v>10</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.82252982544810604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>10</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>0.103468219751612</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
         <v>15</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>21661.318490982001</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.90338283616313497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="29"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="30"/>
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>10</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="13">
+        <v>15</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>10</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>0.102920378559514</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13">
+        <v>15</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="21">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>12</v>
+      </c>
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>0.10340324815124199</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="1">
+        <v>17</v>
+      </c>
+      <c r="I24" s="19">
+        <v>1</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>12</v>
+      </c>
+      <c r="B25" s="23">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="13">
+        <v>17</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>12</v>
+      </c>
+      <c r="B26" s="23">
+        <v>1</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>0.103001016363256</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="13">
+        <v>17</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="21">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D31" s="28"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="28"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>